--- a/52WeekHigh_Low.xlsx
+++ b/52WeekHigh_Low.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5693A6-BC4C-44D5-B117-BAD7626A2266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2FEE8-7BC2-4F48-9C0F-0AEBDA1A297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>Scrip Code</t>
   </si>
@@ -115,19 +115,46 @@
     <t>TAJGVK HOTELS &amp; RESORTS LTD.</t>
   </si>
   <si>
+    <t>SUN PHARMACEUTICAL INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI INDIA LTD.</t>
+  </si>
+  <si>
+    <t>MAHINDRA &amp; MAHINDRA LTD.</t>
+  </si>
+  <si>
     <t>Jio Financial Services Ltd</t>
   </si>
   <si>
+    <t>SIEMENS LTD.</t>
+  </si>
+  <si>
+    <t>CUMMINS INDIA LTD.</t>
+  </si>
+  <si>
+    <t>MRF LTD.</t>
+  </si>
+  <si>
     <t>THERMAX LTD.</t>
   </si>
   <si>
+    <t>JAI BALAJI INDUSTRIES LTD.</t>
+  </si>
+  <si>
     <t>HFCL Ltd</t>
   </si>
   <si>
+    <t>NCC Limited</t>
+  </si>
+  <si>
     <t>GODFREY PHILLIPS INDIA LTD.</t>
   </si>
   <si>
-    <t>Jupiter Life Line Hospitals Ltd</t>
+    <t>Ethos Ltd</t>
+  </si>
+  <si>
+    <t>Apeejay Surrendra Park Hotels Ltd</t>
   </si>
   <si>
     <t>Samhi Hotels Ltd</t>
@@ -139,18 +166,33 @@
     <t>SAVITA OIL TECHNOLOGIES LTD.</t>
   </si>
   <si>
+    <t>K.P. Energy Ltd</t>
+  </si>
+  <si>
+    <t>Quick Heal Technologies Ltd</t>
+  </si>
+  <si>
+    <t>JAGRAN PRAKASHAN LTD.</t>
+  </si>
+  <si>
     <t>SML ISUZU LIMITED</t>
   </si>
   <si>
+    <t>THIRUMALAI CHEMICALS LTD.</t>
+  </si>
+  <si>
+    <t>AGRO TECH FOODS LTD.</t>
+  </si>
+  <si>
     <t>20Feb</t>
   </si>
   <si>
+    <t>22Feb</t>
+  </si>
+  <si>
     <t>21Feb</t>
   </si>
   <si>
-    <t>22Feb</t>
-  </si>
-  <si>
     <t>Exceeded Low Date</t>
   </si>
   <si>
@@ -160,10 +202,10 @@
     <t>POLYPLEX CORPORATION LTD.</t>
   </si>
   <si>
-    <t>WHIRLPOOL OF INDIA LTD.</t>
-  </si>
-  <si>
     <t>MAS Financial Services Ltd</t>
+  </si>
+  <si>
+    <t>SG Finserve Ltd</t>
   </si>
 </sst>
 </file>
@@ -531,17 +573,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -571,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>345.2</v>
@@ -588,7 +630,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>1033.1500000000001</v>
@@ -605,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>558.29999999999995</v>
@@ -622,7 +664,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>229.7</v>
@@ -639,7 +681,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>939.15</v>
@@ -656,7 +698,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E7">
         <v>557.04999999999995</v>
@@ -673,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>217.9</v>
@@ -690,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>69.8</v>
@@ -707,7 +749,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>869.35</v>
@@ -724,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>1455.95</v>
@@ -741,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>4984.3</v>
@@ -758,7 +800,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>551.25</v>
@@ -775,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>2886.55</v>
@@ -792,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>1106</v>
@@ -809,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>6100</v>
@@ -826,7 +868,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>9219.2999999999993</v>
@@ -843,7 +885,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>1630.75</v>
@@ -860,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E19">
         <v>7247.7</v>
@@ -877,7 +919,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E20">
         <v>744.4</v>
@@ -894,7 +936,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>1087.25</v>
@@ -911,7 +953,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>538.85</v>
@@ -928,7 +970,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>1979.6</v>
@@ -945,7 +987,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>1149.95</v>
@@ -962,7 +1004,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>454.95</v>
@@ -979,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E26">
         <v>1182.5999999999999</v>
@@ -996,7 +1038,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>438</v>
@@ -1013,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E28">
         <v>377</v>
@@ -1024,16 +1066,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>543940</v>
+        <v>524715</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>295.7</v>
+        <v>1554.85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1041,16 +1083,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>500411</v>
+        <v>532500</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E30">
-        <v>3562</v>
+        <v>11604.25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1058,16 +1100,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>500183</v>
+        <v>500520</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E31">
-        <v>113.25</v>
+        <v>1864.65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1075,16 +1117,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>500163</v>
+        <v>543940</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E32">
-        <v>2719</v>
+        <v>295.7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1092,16 +1134,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>543980</v>
+        <v>500550</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E33">
-        <v>1470</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1109,16 +1151,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>543984</v>
+        <v>500480</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>209.6</v>
+        <v>2687.9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1126,16 +1168,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>532430</v>
+        <v>500290</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E35">
-        <v>840.9</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1143,16 +1185,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>524667</v>
+        <v>500411</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E36">
-        <v>449</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1160,81 +1202,319 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>505192</v>
+        <v>532976</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>1709.95</v>
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>500183</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>113.25</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>44</v>
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>500294</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39">
+        <v>233.65</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>524051</v>
+        <v>500163</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>903.7</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>500238</v>
+        <v>543532</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E41">
-        <v>1256.5999999999999</v>
+        <v>2669.95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>544111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>543984</v>
+      </c>
+      <c r="C43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>209.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>532430</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>840.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>524667</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>539686</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>539678</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="E47">
+        <v>522.29999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>532705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>505192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>1709.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>500412</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>500215</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>524051</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54">
+        <v>903.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>540749</v>
+      </c>
+      <c r="C55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>2</v>
       </c>
-      <c r="B42">
-        <v>540749</v>
-      </c>
-      <c r="C42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E42">
-        <v>680</v>
+      <c r="B56">
+        <v>539199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/52WeekHigh_Low.xlsx
+++ b/52WeekHigh_Low.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2FEE8-7BC2-4F48-9C0F-0AEBDA1A297A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Exceeding 52_Week_high_low" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,21 +269,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +313,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -361,7 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -396,10 +381,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -572,23 +556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,7 +594,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -633,10 +608,10 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>1033.1500000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1033.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -650,10 +625,10 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>558.29999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>558.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -670,7 +645,7 @@
         <v>229.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -687,7 +662,7 @@
         <v>939.15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -701,10 +676,10 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <v>557.04999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>557.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -721,7 +696,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -738,7 +713,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -755,7 +730,7 @@
         <v>869.35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -772,7 +747,7 @@
         <v>1455.95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -789,7 +764,7 @@
         <v>4984.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,7 +781,7 @@
         <v>551.25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -823,7 +798,7 @@
         <v>2886.55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -840,7 +815,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -857,7 +832,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -871,10 +846,10 @@
         <v>55</v>
       </c>
       <c r="E17">
-        <v>9219.2999999999993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9219.299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -891,7 +866,7 @@
         <v>1630.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -908,7 +883,7 @@
         <v>7247.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -925,7 +900,7 @@
         <v>744.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -942,7 +917,7 @@
         <v>1087.25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -959,7 +934,7 @@
         <v>538.85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -976,7 +951,7 @@
         <v>1979.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -993,7 +968,7 @@
         <v>1149.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1010,7 +985,7 @@
         <v>454.95</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1024,10 +999,10 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <v>1182.5999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1182.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1044,7 +1019,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1061,7 +1036,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1078,7 +1053,7 @@
         <v>1554.85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1095,7 +1070,7 @@
         <v>11604.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1112,7 +1087,7 @@
         <v>1864.65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1129,7 +1104,7 @@
         <v>295.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1146,7 +1121,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1163,7 +1138,7 @@
         <v>2687.9</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1180,7 +1155,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1197,7 +1172,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1214,7 +1189,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1231,7 +1206,7 @@
         <v>113.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1248,7 +1223,7 @@
         <v>233.65</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1265,7 +1240,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1282,7 +1257,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1299,7 +1274,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1316,7 +1291,7 @@
         <v>209.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1333,7 +1308,7 @@
         <v>840.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1350,7 +1325,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1367,7 +1342,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1381,10 +1356,10 @@
         <v>55</v>
       </c>
       <c r="E47">
-        <v>522.29999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>522.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1401,7 +1376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1418,7 +1393,7 @@
         <v>1709.95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1435,7 +1410,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1452,7 +1427,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -1483,7 +1458,7 @@
         <v>903.7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -1500,7 +1475,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>2</v>
       </c>

--- a/52WeekHigh_Low.xlsx
+++ b/52WeekHigh_Low.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Staging\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052FF66A-ACFB-4F62-A572-020952D361F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exceeding 52_Week_high_low" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -205,8 +211,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,13 +275,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -347,6 +361,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -381,9 +396,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,14 +572,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -594,7 +619,7 @@
         <v>345.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -608,10 +633,10 @@
         <v>55</v>
       </c>
       <c r="E3">
-        <v>1033.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1033.1500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -625,10 +650,10 @@
         <v>54</v>
       </c>
       <c r="E4">
-        <v>558.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>558.29999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -645,7 +670,7 @@
         <v>229.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -662,7 +687,7 @@
         <v>939.15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -676,10 +701,10 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <v>557.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>557.04999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -696,7 +721,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -713,7 +738,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -730,7 +755,7 @@
         <v>869.35</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -747,7 +772,7 @@
         <v>1455.95</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -764,7 +789,7 @@
         <v>4984.3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -781,7 +806,7 @@
         <v>551.25</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -798,7 +823,7 @@
         <v>2886.55</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -815,7 +840,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -832,7 +857,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -846,10 +871,10 @@
         <v>55</v>
       </c>
       <c r="E17">
-        <v>9219.299999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>9219.2999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -866,7 +891,7 @@
         <v>1630.75</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -883,7 +908,7 @@
         <v>7247.7</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -900,7 +925,7 @@
         <v>744.4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -917,7 +942,7 @@
         <v>1087.25</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -934,7 +959,7 @@
         <v>538.85</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -951,7 +976,7 @@
         <v>1979.6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -968,7 +993,7 @@
         <v>1149.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -985,7 +1010,7 @@
         <v>454.95</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -999,10 +1024,10 @@
         <v>55</v>
       </c>
       <c r="E26">
-        <v>1182.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>1182.5999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1019,7 +1044,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1036,7 +1061,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1053,7 +1078,7 @@
         <v>1554.85</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1070,7 +1095,7 @@
         <v>11604.25</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1087,7 +1112,7 @@
         <v>1864.65</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1104,7 +1129,7 @@
         <v>295.7</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1121,7 +1146,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1138,7 +1163,7 @@
         <v>2687.9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1172,7 +1197,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1189,7 +1214,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1206,7 +1231,7 @@
         <v>113.25</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1223,7 +1248,7 @@
         <v>233.65</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1240,7 +1265,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1257,7 +1282,7 @@
         <v>2669.95</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1274,7 +1299,7 @@
         <v>223.5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1291,7 +1316,7 @@
         <v>209.6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1308,7 +1333,7 @@
         <v>840.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1325,7 +1350,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1342,7 +1367,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1356,10 +1381,10 @@
         <v>55</v>
       </c>
       <c r="E47">
-        <v>522.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>522.29999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1376,7 +1401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1393,7 +1418,7 @@
         <v>1709.95</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1410,7 +1435,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1427,7 +1452,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1466,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -1458,7 +1483,7 @@
         <v>903.7</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
